--- a/outputs-HGR-r202-archive/o__Peptostreptococcales.xlsx
+++ b/outputs-HGR-r202-archive/o__Peptostreptococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15916.fa</t>
+          <t>even_MAG-GUT23816.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999141378045552</v>
+        <v>0.9999999830990612</v>
       </c>
       <c r="C4" t="n">
-        <v>8.586219544478062e-05</v>
+        <v>1.690093876783204e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999141378045552</v>
+        <v>0.9999999830990612</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,95 +547,95 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1728.fa</t>
+          <t>even_MAG-GUT25429.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999981485473041</v>
+        <v>3.628757221374457e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.851452695971017e-06</v>
+        <v>0.9999996371242779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999981485473041</v>
+        <v>0.9999996371242779</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23816.fa</t>
+          <t>even_MAG-GUT30539.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999830990612</v>
+        <v>9.588940319549266e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>1.690093876783204e-08</v>
+        <v>0.9999999041105968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999830990612</v>
+        <v>0.9999999041105968</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26088.fa</t>
+          <t>even_MAG-GUT32544.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999876802623939</v>
+        <v>5.946883073759679e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>1.231973760610627e-05</v>
+        <v>0.9999994053116926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999876802623939</v>
+        <v>0.9999994053116926</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28366.fa</t>
+          <t>even_MAG-GUT42774.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999789773964902</v>
+        <v>0.999999959521361</v>
       </c>
       <c r="C8" t="n">
-        <v>2.102260350982069e-05</v>
+        <v>4.047863894791822e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999789773964902</v>
+        <v>0.999999959521361</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,95 +651,95 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38358.fa</t>
+          <t>even_MAG-GUT44190.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998995848310728</v>
+        <v>7.769526022549655e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001004151689272355</v>
+        <v>0.9999999223047398</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998995848310728</v>
+        <v>0.9999999223047398</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42774.fa</t>
+          <t>even_MAG-GUT44598.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999999959521361</v>
+        <v>3.228625496065618e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>4.047863894791822e-08</v>
+        <v>0.9999967713745039</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999999959521361</v>
+        <v>0.9999967713745039</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4289.fa</t>
+          <t>even_MAG-GUT56457.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999905036763959</v>
+        <v>4.533934661044015e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>9.496323604135317e-06</v>
+        <v>0.9999995466065339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999905036763959</v>
+        <v>0.9999995466065339</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44598.fa</t>
+          <t>even_MAG-GUT58695.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.228625496065618e-06</v>
+        <v>2.061700127287125e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999967713745039</v>
+        <v>0.9999997938299873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999967713745039</v>
+        <v>0.9999997938299873</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,43 +755,43 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51918.fa</t>
+          <t>even_MAG-GUT66161.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999991071508173</v>
+        <v>2.5182906178145e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>8.92849182733433e-07</v>
+        <v>0.9999974817093822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999991071508173</v>
+        <v>0.9999974817093822</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>f__Anaerovoracaceae</t>
+          <t>f__Peptostreptococcaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51929.fa</t>
+          <t>even_MAG-GUT85090.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999995383460539</v>
+        <v>0.9999934872148809</v>
       </c>
       <c r="C14" t="n">
-        <v>4.616539460238252e-07</v>
+        <v>6.512785119105472e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999995383460539</v>
+        <v>0.9999934872148809</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58957.fa</t>
+          <t>even_MAG-GUT85141.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998411469503383</v>
+        <v>0.9999999916410939</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001588530496617302</v>
+        <v>8.358906107604512e-09</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998411469503383</v>
+        <v>0.9999999916410939</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -825,162 +825,6 @@
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66916.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9998531830921779</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0001468169078221518</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9998531830921779</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72317.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9999937870844522</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.212915547776755e-06</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9999937870844522</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83851.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9999994928532071</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.071467928757566e-07</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9999994928532071</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85090.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9999934872148809</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.512785119105472e-06</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9999934872148809</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85141.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9999999916410939</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.358906107604512e-09</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9999999916410939</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86091.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9999583260595524</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.167394044761086e-05</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9999583260595524</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>f__Anaerovoracaceae</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>f__Anaerovoracaceae</t>
         </is>
